--- a/Assets/Configs/GameCharacters.xlsx
+++ b/Assets/Configs/GameCharacters.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\minigame\Assets\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{268F164B-79E3-49DB-8571-396B8BF60796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0739D93B-339F-4503-8C9D-35B2959C2383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="19200" windowHeight="9970"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GameCharacters" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ObjectID</t>
   </si>
@@ -48,13 +48,31 @@
     <t>CC_Enemy_01</t>
   </si>
   <si>
-    <t>6001|6002</t>
+    <t>基础敌人</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+  </si>
+  <si>
+    <t>Tower</t>
+  </si>
+  <si>
+    <t>CC_Object_Tower</t>
+  </si>
+  <si>
+    <t>基础子弹</t>
+  </si>
+  <si>
+    <t>Bullet</t>
+  </si>
+  <si>
+    <t>CC_Bullet_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -999,10 +1017,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1028,20 +1048,55 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>8001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>